--- a/xlsx/科索沃战争_intext.xlsx
+++ b/xlsx/科索沃战争_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="393">
   <si>
     <t>科索沃战争</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>南斯拉夫內戰</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_科索沃战争</t>
+    <t>南斯拉夫内战</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_科索沃战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A6%E8%BD%B0%E7%82%B8%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB</t>
@@ -47,37 +47,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84</t>
   </si>
   <si>
-    <t>北約</t>
+    <t>北约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83%E8%A7%A3%E6%94%BE%E8%BB%8D</t>
   </si>
   <si>
-    <t>科索沃解放軍</t>
+    <t>科索沃解放军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%92%8C%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>維和部隊</t>
+    <t>维和部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E6%96%AF%E5%88%A9%C2%B7%E5%85%8B%E6%8B%89%E5%85%8B</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E7%A7%98%E6%9B%B8%E9%95%B7</t>
   </si>
   <si>
-    <t>北約秘書長</t>
+    <t>北约秘书长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%BE%9B%C2%B7%E5%A1%94%E5%A5%87</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>阿爾巴尼亞人</t>
+    <t>阿尔巴尼亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%93%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>游擊隊</t>
+    <t>游击队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -335,19 +335,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
   </si>
   <si>
-    <t>巴尔干半岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>獨立</t>
+    <t>独立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E6%9F%AF%E6%9E%97%E9%A0%93</t>
   </si>
   <si>
-    <t>比爾·柯林頓</t>
+    <t>比尔·柯林顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
@@ -389,31 +386,28 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%B5%AB%E8%92%82%E8%96%A9%E9%87%8C</t>
   </si>
   <si>
-    <t>阿赫蒂薩里</t>
+    <t>阿赫蒂萨里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-117%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-117戰鬥機</t>
+    <t>F-117战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SA-3%E9%98%B2%E7%A9%BA%E5%B0%8E%E5%BD%88</t>
   </si>
   <si>
-    <t>SA-3防空導彈</t>
+    <t>SA-3防空导弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E6%A0%BC%E8%90%8A%E5%BE%B7</t>
   </si>
   <si>
-    <t>貝爾格萊德</t>
+    <t>贝尔格莱德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83%E8%AE%AE%E4%BC%9A</t>
@@ -425,61 +419,58 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>馬爾他騎士團</t>
+    <t>马尔他骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>庫克群島</t>
+    <t>库克群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A7%91%E7%B4%A2%E6%B2%83%E8%87%A8%E6%99%82%E8%A1%8C%E6%94%BF%E7%95%B6%E5%B1%80%E7%89%B9%E6%B4%BE%E5%9C%98</t>
   </si>
   <si>
-    <t>聯合國科索沃臨時行政當局特派團</t>
+    <t>联合国科索沃临时行政当局特派团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E6%97%A5%E6%88%B0%E7%88%AD_(%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9E)</t>
   </si>
   <si>
-    <t>十日戰爭 (斯洛文尼亞)</t>
+    <t>十日战争 (斯洛文尼亚)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>克羅埃西亞戰爭</t>
+    <t>克罗埃西亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波士尼亞戰爭</t>
+    <t>波士尼亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>科索沃戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E7%B4%9B%E7%88%AD</t>
   </si>
   <si>
-    <t>馬其頓紛爭</t>
+    <t>马其顿纷争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%85%AB%E4%BA%8B%E4%BB%B6</t>
@@ -491,13 +482,13 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>Template talk-南斯拉夫內戰</t>
+    <t>Template talk-南斯拉夫内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E8%A7%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>南斯拉夫解體</t>
+    <t>南斯拉夫解体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E6%99%AE%C2%B7%E5%B8%83%E7%BD%97%E5%85%B9%C2%B7%E9%93%81%E6%89%98</t>
@@ -509,13 +500,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9%E8%80%85%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>南斯拉夫共產主義者聯盟</t>
+    <t>南斯拉夫共产主义者联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%B1%E9%A0%93%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>岱頓協定</t>
+    <t>岱顿协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1991%E5%B9%B4</t>
@@ -551,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E7%A7%91%E7%93%A6%E7%88%BE%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>武科瓦爾戰役</t>
+    <t>武科瓦尔战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Vukovar_massacre</t>
@@ -635,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E8%80%B6%E4%BD%9B%E5%9C%8D%E5%9F%8E%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>塞拉耶佛圍城戰役</t>
+    <t>塞拉耶佛围城战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fo%C4%8Da_massacres</t>
@@ -737,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E6%9A%B4%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>風暴作戰</t>
+    <t>风暴作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1995%E5%B9%B4%E5%8C%97%E7%BA%A6%E8%BD%B0%E7%82%B8%E6%B3%A2%E9%BB%91</t>
@@ -767,15 +758,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E8%81%AF%E9%82%A6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>南斯拉夫社會主義聯邦共和國</t>
+    <t>南斯拉夫社会主义联邦共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E6%A0%BC%E8%8E%B1%E5%BE%B7</t>
   </si>
   <si>
-    <t>贝尔格莱德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A%E5%92%8C%E9%BB%91%E5%B1%B1</t>
   </si>
   <si>
@@ -797,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E8%80%B6%E4%BD%9B</t>
@@ -809,25 +797,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%B8%83%E4%BA%9E%E7%B4%8D</t>
   </si>
   <si>
-    <t>盧布亞納</t>
+    <t>卢布亚纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E6%A0%BC%E5%8B%92</t>
   </si>
   <si>
-    <t>貝爾格勒</t>
+    <t>贝尔格勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BE%B7%E6%88%88%E9%87%8C%E5%AF%9F</t>
@@ -839,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E9%AB%98%E6%AF%94%E8%80%B6</t>
@@ -851,13 +839,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E4%BB%80%E8%92%82%E7%B4%8D</t>
   </si>
   <si>
-    <t>普里什蒂納</t>
+    <t>普里什蒂纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%97%8F%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>塞族共和國</t>
+    <t>塞族共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%BC%E4%BA%9A%E5%8D%A2%E5%8D%A1</t>
@@ -869,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E5%85%8B%E6%8B%89%E4%BC%8A%E7%B4%8D%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>塞爾維亞克拉伊納共和國</t>
+    <t>塞尔维亚克拉伊纳共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%AE%81</t>
@@ -881,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>西波士尼亞共和國</t>
+    <t>西波士尼亚共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%A1%9E%E5%93%A5-%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -893,13 +881,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E5%A1%94%E7%88%BE</t>
   </si>
   <si>
-    <t>莫斯塔爾</t>
+    <t>莫斯塔尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%AF%E6%8B%89%E6%B2%83%E5%B0%BC%E4%BA%9E%E3%80%81%E5%B7%B4%E8%98%AD%E5%B0%BC%E4%BA%9E%E5%92%8C%E8%A5%BF%E6%96%AF%E9%9B%B7%E5%A7%86%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E4%BA%BA%E8%87%AA%E6%B2%BB%E5%B7%9E</t>
   </si>
   <si>
-    <t>東斯拉沃尼亞、巴蘭尼亞和西斯雷姆塞爾維亞人自治州</t>
+    <t>东斯拉沃尼亚、巴兰尼亚和西斯雷姆塞尔维亚人自治州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E4%B8%9C%E6%96%AF%E6%8B%89%E6%B2%83%E5%B0%BC%E4%BA%9A%E3%80%81%E5%B7%B4%E6%8B%89%E5%B0%BC%E4%BA%9A%E5%92%8C%E8%A5%BF%E9%94%A1%E5%B0%94%E7%B1%B3%E4%B9%8C%E5%A7%86%E8%BF%87%E6%B8%A1%E8%A1%8C%E6%94%BF%E5%BD%93%E5%B1%80</t>
@@ -911,19 +899,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納聯邦</t>
+    <t>波士尼亚与赫塞哥维纳联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%88%BE%E5%A5%87%E7%A7%91%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>布爾奇科特區</t>
+    <t>布尔奇科特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
+    <t>战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%8F%B8%E8%B5%B7%E4%B9%89</t>
@@ -953,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>猶他戰爭</t>
+    <t>犹他战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
@@ -971,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8D%B0%E7%AC%AC%E5%AE%89%E6%88%98%E4%BA%89</t>
@@ -1007,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E9%B8%A6%E7%89%87%E6%88%98%E4%BA%89</t>
@@ -1019,13 +1007,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A6%8F%E7%88%BE%E6%91%A9%E6%B2%99%E9%81%A0%E5%BE%81</t>
   </si>
   <si>
-    <t>美國福爾摩沙遠征</t>
+    <t>美国福尔摩沙远征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%9C%AA%E6%B4%8B%E6%93%BE</t>
   </si>
   <si>
-    <t>辛未洋擾</t>
+    <t>辛未洋扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%98%E4%BA%89</t>
@@ -1049,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E6%B5%B7%E5%9C%B0</t>
   </si>
   <si>
-    <t>美國佔領海地</t>
+    <t>美国佔领海地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -1085,13 +1073,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>入侵格林納達</t>
+    <t>入侵格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>黎巴嫩內戰</t>
+    <t>黎巴嫩内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%86%85%E6%88%98</t>
@@ -1115,25 +1103,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A5%E4%BE%B5%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>美國入侵巴拿馬</t>
+    <t>美国入侵巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>海灣戰爭</t>
+    <t>海湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%8A%A0%E8%BF%AA%E6%B2%99%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>摩加迪沙之戰</t>
+    <t>摩加迪沙之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯尼亞戰爭</t>
+    <t>波斯尼亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0%E4%B9%8B%E7%8B%90%E8%A1%8C%E5%8A%A8</t>
@@ -1145,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗戰爭 (2001年)</t>
+    <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%98%E4%BA%89</t>
@@ -1169,37 +1157,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>敘利亞內戰</t>
+    <t>叙利亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E5%9C%A8%E6%95%98%E5%88%A9%E4%BA%9E%E9%87%9D%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E7%A9%BA%E8%A5%B2</t>
   </si>
   <si>
-    <t>2014年在敘利亞針對伊斯蘭國的空襲</t>
+    <t>2014年在叙利亚针对伊斯兰国的空袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E8%BB%8D%E4%BA%8B%E6%89%93%E6%93%8A</t>
   </si>
   <si>
-    <t>對伊斯蘭國的軍事打擊</t>
+    <t>对伊斯兰国的军事打击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國戰爭列表</t>
+    <t>美国战争列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
+    <t>美国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3171,7 +3159,7 @@
         <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3197,10 +3185,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>7</v>
@@ -3226,10 +3214,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3255,10 +3243,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3284,10 +3272,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
         <v>113</v>
-      </c>
-      <c r="F60" t="s">
-        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3313,10 +3301,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
         <v>115</v>
-      </c>
-      <c r="F61" t="s">
-        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3342,10 +3330,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3371,10 +3359,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3400,10 +3388,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3429,10 +3417,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3458,10 +3446,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3487,10 +3475,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3516,10 +3504,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="G68" t="n">
         <v>10</v>
@@ -3545,10 +3533,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3574,10 +3562,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3603,10 +3591,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3632,10 +3620,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3661,10 +3649,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3690,10 +3678,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3719,10 +3707,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3748,10 +3736,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3777,10 +3765,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3806,10 +3794,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3835,10 +3823,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>5</v>
@@ -3864,10 +3852,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3893,10 +3881,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3922,10 +3910,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G82" t="n">
         <v>6</v>
@@ -3951,10 +3939,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3980,10 +3968,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F84" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4009,10 +3997,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4038,10 +4026,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4067,10 +4055,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4096,10 +4084,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G88" t="n">
         <v>4</v>
@@ -4125,10 +4113,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F89" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4154,10 +4142,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4183,10 +4171,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4212,10 +4200,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4241,10 +4229,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4270,10 +4258,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4299,10 +4287,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4328,10 +4316,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4357,10 +4345,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4386,10 +4374,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4415,10 +4403,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4444,10 +4432,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4473,10 +4461,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4502,10 +4490,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4531,10 +4519,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4560,10 +4548,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4589,10 +4577,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4618,10 +4606,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4647,10 +4635,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4676,10 +4664,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4705,10 +4693,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4734,10 +4722,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4763,10 +4751,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4792,10 +4780,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4821,10 +4809,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4850,10 +4838,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4879,10 +4867,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4908,10 +4896,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4937,10 +4925,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4966,10 +4954,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G118" t="n">
         <v>4</v>
@@ -4995,10 +4983,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5024,10 +5012,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5053,10 +5041,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5082,10 +5070,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5111,10 +5099,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5140,10 +5128,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5169,10 +5157,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5198,10 +5186,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5227,10 +5215,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5256,10 +5244,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5285,10 +5273,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G129" t="n">
         <v>21</v>
@@ -5343,10 +5331,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F131" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5372,10 +5360,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5401,10 +5389,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5430,10 +5418,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5459,10 +5447,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -5488,10 +5476,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5517,10 +5505,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5546,10 +5534,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5575,10 +5563,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -5604,10 +5592,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5633,10 +5621,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5662,10 +5650,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5691,10 +5679,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5720,10 +5708,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -5749,10 +5737,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5778,10 +5766,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5807,10 +5795,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -5836,10 +5824,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5865,10 +5853,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5894,10 +5882,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5923,10 +5911,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5952,10 +5940,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5981,10 +5969,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6010,10 +5998,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6039,10 +6027,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6068,10 +6056,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6097,10 +6085,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6126,10 +6114,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G158" t="n">
         <v>37</v>
@@ -6155,10 +6143,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6184,10 +6172,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6213,10 +6201,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6242,10 +6230,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6271,10 +6259,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6300,10 +6288,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6329,10 +6317,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6358,10 +6346,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6387,10 +6375,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6416,10 +6404,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6445,10 +6433,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6474,10 +6462,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6503,10 +6491,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6532,10 +6520,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6561,10 +6549,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6590,10 +6578,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6619,10 +6607,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6648,10 +6636,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6677,10 +6665,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6706,10 +6694,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6735,10 +6723,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6764,10 +6752,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6793,10 +6781,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6822,10 +6810,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6851,10 +6839,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6880,10 +6868,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6909,10 +6897,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6938,10 +6926,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6967,10 +6955,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6996,10 +6984,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7025,10 +7013,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7054,10 +7042,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7083,10 +7071,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7112,10 +7100,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7141,10 +7129,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7170,10 +7158,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7228,10 +7216,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7257,10 +7245,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7286,10 +7274,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7315,10 +7303,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7344,10 +7332,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7373,10 +7361,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7402,10 +7390,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7431,10 +7419,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7460,10 +7448,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7489,10 +7477,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>3</v>
@@ -7518,10 +7506,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
